--- a/data/trans_camb/CAGE_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/CAGE_R-Provincia-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>3.836579331034059</v>
+        <v>3.686786565727354</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.447480890236141</v>
+        <v>1.364128199153413</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.6893093227081453</v>
+        <v>-0.5107369986995348</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.153297834590812</v>
+        <v>-1.14312150961004</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.4183208946769612</v>
+        <v>0.4716171288539143</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-1.918955752093154</v>
+        <v>-1.934100601182127</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1.719343515035183</v>
+        <v>1.566643248615736</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>1.374297206870213</v>
+        <v>1.33242070350089</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.3956227174351054</v>
+        <v>-0.3739201616854879</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.96991664515675</v>
+        <v>10.57964153512837</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.315001311098192</v>
+        <v>7.298647292364295</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.189611813786075</v>
+        <v>5.815922348906877</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.7122675792699225</v>
+        <v>0.7138127179904321</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>4.893095096952107</v>
+        <v>4.542037637628389</v>
       </c>
       <c r="H6" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>5.353668547649306</v>
+        <v>5.329390780603656</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>5.188618623118612</v>
+        <v>4.896009405371929</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>3.940125535434042</v>
+        <v>3.765285150285701</v>
       </c>
     </row>
     <row r="7">
@@ -780,23 +780,25 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>1.210465959578824</v>
+        <v>1.564299101937973</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.1471716213800465</v>
-      </c>
-      <c r="E8" s="6" t="inlineStr"/>
+        <v>0.2826359877968682</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="F8" s="6" t="inlineStr"/>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="inlineStr"/>
       <c r="I8" s="6" t="n">
-        <v>1.126640654870242</v>
+        <v>0.7116026852086683</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.7713031603484357</v>
+        <v>0.4333854618152164</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.6305961036374311</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9">
@@ -807,23 +809,25 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>30.14707570831282</v>
+        <v>31.10975663077969</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>17.6202131816849</v>
-      </c>
-      <c r="E9" s="6" t="inlineStr"/>
+        <v>20.33784290631805</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>13.38033303731984</v>
+      </c>
       <c r="F9" s="6" t="inlineStr"/>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="inlineStr"/>
       <c r="I9" s="6" t="n">
-        <v>23.08585084244818</v>
+        <v>20.51399194269803</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>21.928934217518</v>
+        <v>18.01868994817287</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>13.4992833420109</v>
+        <v>12.51091430542872</v>
       </c>
     </row>
     <row r="10">
@@ -873,13 +877,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.7362648884526648</v>
+        <v>-0.6093603029010488</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.831606429291415</v>
+        <v>-1.860686284393868</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.753909832792505</v>
+        <v>-2.856365846075027</v>
       </c>
       <c r="F11" s="5" t="inlineStr"/>
       <c r="G11" s="5" t="n">
@@ -887,13 +891,13 @@
       </c>
       <c r="H11" s="5" t="inlineStr"/>
       <c r="I11" s="5" t="n">
-        <v>-0.440575170217793</v>
+        <v>-0.336976229977113</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.8610231251564848</v>
+        <v>-0.8723333135009306</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-1.318046102023367</v>
+        <v>-1.350107211336757</v>
       </c>
     </row>
     <row r="12">
@@ -904,27 +908,27 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.821928072749643</v>
+        <v>2.973150866366284</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7145221893012292</v>
+        <v>0.7417262329569417</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-0.5956387846264373</v>
+        <v>-0.5751684523681388</v>
       </c>
       <c r="F12" s="5" t="inlineStr"/>
       <c r="G12" s="5" t="n">
-        <v>1.162534769078379</v>
+        <v>1.049487945234651</v>
       </c>
       <c r="H12" s="5" t="inlineStr"/>
       <c r="I12" s="5" t="n">
-        <v>1.262957231722472</v>
+        <v>1.475734542400634</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.5018824619408491</v>
+        <v>0.5092747404492867</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-0.2889200609274792</v>
+        <v>-0.2990597575838504</v>
       </c>
     </row>
     <row r="13">
@@ -968,20 +972,20 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.433196191177642</v>
+        <v>-0.3974595088086785</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.885316750290462</v>
+        <v>-0.8648135951840643</v>
       </c>
       <c r="E14" s="6" t="inlineStr"/>
       <c r="F14" s="6" t="inlineStr"/>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="inlineStr"/>
       <c r="I14" s="6" t="n">
-        <v>-0.5108241590457164</v>
+        <v>-0.4631751717371733</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.7949838101625833</v>
+        <v>-0.8104868394389485</v>
       </c>
       <c r="K14" s="6" t="inlineStr"/>
     </row>
@@ -993,20 +997,20 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>4.020304096531042</v>
+        <v>4.702154352012237</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.12390705190594</v>
+        <v>1.542495232421276</v>
       </c>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="inlineStr"/>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>3.291034932551918</v>
+        <v>4.340908550915093</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.643951421904094</v>
+        <v>1.579312759746188</v>
       </c>
       <c r="K15" s="6" t="inlineStr"/>
     </row>
@@ -1037,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>1.920368377827589</v>
+        <v>1.92036837782759</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.1482365166064988</v>
@@ -1061,14 +1065,14 @@
         <v>0</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.197367668312771</v>
+        <v>3.198747589047936</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G17" s="5" t="inlineStr"/>
       <c r="H17" s="5" t="n">
-        <v>0.5147533890218969</v>
+        <v>0.5194064670219652</v>
       </c>
       <c r="I17" s="5" t="n">
         <v>0</v>
@@ -1077,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>2.750007508209931</v>
+        <v>2.744340533885103</v>
       </c>
     </row>
     <row r="18">
@@ -1089,26 +1093,26 @@
       </c>
       <c r="C18" s="5" t="inlineStr"/>
       <c r="D18" s="5" t="n">
-        <v>1.634397076481859</v>
+        <v>1.268803031430195</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9.543227082847297</v>
+        <v>9.855193610605429</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.444867321241133</v>
+        <v>1.615004175167643</v>
       </c>
       <c r="G18" s="5" t="inlineStr"/>
       <c r="H18" s="5" t="n">
-        <v>5.857060587182985</v>
+        <v>5.420912309290307</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.7410604393866199</v>
+        <v>0.7464828980228824</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.6676686271368102</v>
+        <v>0.7471308274932481</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>7.394920190257961</v>
+        <v>7.566400946061319</v>
       </c>
     </row>
     <row r="19">
@@ -1208,7 +1212,7 @@
         <v>-1.332921681265231</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-0.4710922364727872</v>
+        <v>-0.4710922364727874</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-0.708052061692044</v>
@@ -1237,31 +1241,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.364329362224702</v>
+        <v>-3.414412821618319</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-3.361047826556093</v>
+        <v>-3.242372000173903</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.408021683714648</v>
+        <v>-2.468491671175306</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.559755000940882</v>
+        <v>-2.449331664232997</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.504185298602375</v>
+        <v>-2.444726202755539</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.355990292040996</v>
+        <v>-1.417117110669047</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-2.078964775353367</v>
+        <v>-2.3399509193225</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-2.055863828343321</v>
+        <v>-2.298350385358435</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-1.376666348863503</v>
+        <v>-1.443238358406345</v>
       </c>
     </row>
     <row r="24">
@@ -1272,13 +1276,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-0.275817964455419</v>
+        <v>-0.322220372128555</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.06575182233223369</v>
+        <v>-0.05577267670313363</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.455284931231251</v>
+        <v>1.604811377931894</v>
       </c>
       <c r="F24" s="5" t="n">
         <v>0</v>
@@ -1287,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.450643862484176</v>
+        <v>1.244696479104228</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-0.2972967783142525</v>
+        <v>-0.3948621627585085</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-0.2316429575889664</v>
+        <v>-0.2506275667490005</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>1.318152696267614</v>
+        <v>1.105798503023289</v>
       </c>
     </row>
     <row r="25">
@@ -1313,7 +1317,7 @@
         <v>-0.7955556926160343</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.28117189159786</v>
+        <v>-0.2811718915978602</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-1</v>
@@ -1341,7 +1345,9 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C26" s="6" t="inlineStr"/>
+      <c r="C26" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="D26" s="6" t="inlineStr"/>
       <c r="E26" s="6" t="n">
         <v>-1</v>
@@ -1352,9 +1358,11 @@
       <c r="I26" s="6" t="n">
         <v>-1</v>
       </c>
-      <c r="J26" s="6" t="inlineStr"/>
+      <c r="J26" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="K26" s="6" t="n">
-        <v>-0.8042816643347928</v>
+        <v>-0.8502174081514187</v>
       </c>
     </row>
     <row r="27">
@@ -1367,17 +1375,19 @@
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="n">
-        <v>2.857967203152379</v>
+        <v>3.034019116480181</v>
       </c>
       <c r="F27" s="6" t="inlineStr"/>
       <c r="G27" s="6" t="inlineStr"/>
       <c r="H27" s="6" t="inlineStr"/>
       <c r="I27" s="6" t="n">
-        <v>0.3662268847950632</v>
-      </c>
-      <c r="J27" s="6" t="inlineStr"/>
+        <v>1.840201433411322</v>
+      </c>
+      <c r="J27" s="6" t="n">
+        <v>0.3946883894009688</v>
+      </c>
       <c r="K27" s="6" t="n">
-        <v>2.418602557040675</v>
+        <v>2.249992337863477</v>
       </c>
     </row>
     <row r="28">
@@ -1407,7 +1417,7 @@
         <v>-0.7983316836591262</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>3.530404876355324</v>
+        <v>3.530404876355325</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>0.7938442413158328</v>
@@ -1416,7 +1426,7 @@
         <v>0.04341220121411921</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>0.4223552809177553</v>
+        <v>0.4223552809177554</v>
       </c>
     </row>
     <row r="29">
@@ -1427,31 +1437,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.4714721201543774</v>
+        <v>0.5321160943962479</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.4458985260975618</v>
+        <v>-0.4377428788958753</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-2.638495382840757</v>
+        <v>-2.418705281472449</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-3.99911208536015</v>
+        <v>-3.741066849745273</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-4.442563208167849</v>
+        <v>-4.010145640674862</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-1.586277921681766</v>
+        <v>-1.590829114113591</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.6073626690509204</v>
+        <v>-0.5922072577676718</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-1.241224130394289</v>
+        <v>-1.370723705005068</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-1.005280491298574</v>
+        <v>-1.048353488620797</v>
       </c>
     </row>
     <row r="30">
@@ -1462,10 +1472,10 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>5.704701923868465</v>
+        <v>5.487473242486631</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.779235169014506</v>
+        <v>3.155023311322545</v>
       </c>
       <c r="E30" s="5" t="n">
         <v>0</v>
@@ -1477,16 +1487,16 @@
         <v>0</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>21.89648179504867</v>
+        <v>19.06820714897656</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>2.244349272682193</v>
+        <v>2.318549217239396</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.115608185826897</v>
+        <v>1.115210089094364</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>4.026010317476085</v>
+        <v>5.181287141478959</v>
       </c>
     </row>
     <row r="31">
@@ -1512,7 +1522,7 @@
         <v>-1</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>4.422228189884476</v>
+        <v>4.422228189884478</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>1.277811651944189</v>
@@ -1521,7 +1531,7 @@
         <v>0.06987846438993978</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.6798443209996804</v>
+        <v>0.6798443209996807</v>
       </c>
     </row>
     <row r="32">
@@ -1537,9 +1547,7 @@
       <c r="F32" s="6" t="inlineStr"/>
       <c r="G32" s="6" t="inlineStr"/>
       <c r="H32" s="6" t="inlineStr"/>
-      <c r="I32" s="6" t="n">
-        <v>-0.9376337099047499</v>
-      </c>
+      <c r="I32" s="6" t="inlineStr"/>
       <c r="J32" s="6" t="inlineStr"/>
       <c r="K32" s="6" t="inlineStr"/>
     </row>
@@ -1578,7 +1586,7 @@
         <v>-0.2379145027671361</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1.676892974975881</v>
+        <v>1.67689297497588</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>-0.7107863418582399</v>
@@ -1607,31 +1615,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-2.829836300780316</v>
+        <v>-2.704307741178249</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-2.227821365272443</v>
+        <v>-2.234123864906922</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-0.6136990081538847</v>
+        <v>-0.5671732418599021</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-2.302868775119697</v>
+        <v>-2.308683301798472</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-1.792803586567431</v>
+        <v>-1.792538094014051</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-0.3405339240435141</v>
+        <v>-0.370486925546701</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-1.828099379595811</v>
+        <v>-1.785710753572925</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-1.447837700217438</v>
+        <v>-1.575456612279029</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-0.03125280629142065</v>
+        <v>0.0152411663603908</v>
       </c>
     </row>
     <row r="36">
@@ -1642,31 +1650,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>0.6320823471213928</v>
+        <v>0.5200594966166189</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>1.150349548118699</v>
+        <v>1.140208126498532</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>4.49254898354665</v>
+        <v>4.367625094695128</v>
       </c>
       <c r="F36" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>0.6865986133347195</v>
+        <v>0.6897208243908084</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>5.640415965959345</v>
+        <v>5.442681664589712</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>0.07916463507180267</v>
+        <v>0.05519223433547719</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>0.697637751009074</v>
+        <v>0.5254300513029059</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>4.039320366024303</v>
+        <v>3.832909819585303</v>
       </c>
     </row>
     <row r="37">
@@ -1683,7 +1691,7 @@
         <v>-0.246665937474026</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>1.738575719029981</v>
+        <v>1.73857571902998</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>-1</v>
@@ -1713,16 +1721,14 @@
       </c>
       <c r="C38" s="6" t="inlineStr"/>
       <c r="D38" s="6" t="inlineStr"/>
-      <c r="E38" s="6" t="n">
-        <v>-0.8082466743914263</v>
-      </c>
+      <c r="E38" s="6" t="inlineStr"/>
       <c r="F38" s="6" t="inlineStr"/>
       <c r="G38" s="6" t="inlineStr"/>
       <c r="H38" s="6" t="inlineStr"/>
       <c r="I38" s="6" t="inlineStr"/>
       <c r="J38" s="6" t="inlineStr"/>
       <c r="K38" s="6" t="n">
-        <v>-0.2950785956118723</v>
+        <v>-0.4334798636151022</v>
       </c>
     </row>
     <row r="39">
@@ -1741,7 +1747,7 @@
       <c r="I39" s="6" t="inlineStr"/>
       <c r="J39" s="6" t="inlineStr"/>
       <c r="K39" s="6" t="n">
-        <v>13.73186689138478</v>
+        <v>10.7491275994591</v>
       </c>
     </row>
     <row r="40">
@@ -1762,7 +1768,7 @@
         <v>2.178074824219397</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>3.689235080297298</v>
+        <v>3.689235080297299</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>0.3070276580992534</v>
@@ -1791,31 +1797,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>0.2042942287138852</v>
+        <v>0.3733786674385935</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>0.9234664449557234</v>
+        <v>0.8501951863578479</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1.841454039715933</v>
+        <v>1.606784850343295</v>
       </c>
       <c r="F41" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>0.3868027925278567</v>
+        <v>0.3031585236040428</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>1.878874661499103</v>
+        <v>1.893332565714797</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>0.2953456319560975</v>
+        <v>0.2889251322016113</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>0.7959177847318872</v>
+        <v>0.7934755701647995</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>2.279157578434068</v>
+        <v>2.377809292909984</v>
       </c>
     </row>
     <row r="42">
@@ -1826,31 +1832,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>2.677814287395483</v>
+        <v>2.796946085976126</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>3.836988196297739</v>
+        <v>3.869536505727986</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>6.982055511650399</v>
+        <v>6.298568732416681</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>0.9765582768431464</v>
+        <v>0.9888050089623235</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>1.894381009868475</v>
+        <v>1.781210699409608</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>8.942321895427531</v>
+        <v>9.802541224166768</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>1.627779674765656</v>
+        <v>1.551649824274549</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>2.412153155579087</v>
+        <v>2.431943156627609</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>6.150086956244687</v>
+        <v>6.063529643521008</v>
       </c>
     </row>
     <row r="43">
@@ -1867,7 +1873,7 @@
         <v>4.784680060597303</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>8.104317322468855</v>
+        <v>8.104317322468857</v>
       </c>
       <c r="F43" s="6" t="inlineStr">
         <is>
@@ -1902,25 +1908,25 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.1972036401220509</v>
+        <v>0.02329503366170091</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.6514579009413065</v>
+        <v>0.5171552410717351</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>1.235040837054719</v>
+        <v>1.142569390681287</v>
       </c>
       <c r="F44" s="6" t="inlineStr"/>
       <c r="G44" s="6" t="inlineStr"/>
       <c r="H44" s="6" t="inlineStr"/>
       <c r="I44" s="6" t="n">
-        <v>0.2453462265202677</v>
+        <v>0.2935290659246788</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>1.348515688674118</v>
+        <v>1.214261817144394</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>4.108029430805803</v>
+        <v>4.832875665185833</v>
       </c>
     </row>
     <row r="45">
@@ -1931,26 +1937,22 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>17.5388029312306</v>
+        <v>18.2237991663723</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>25.58635850117194</v>
+        <v>26.84277401521638</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>46.5501003660069</v>
+        <v>37.89798343213189</v>
       </c>
       <c r="F45" s="6" t="inlineStr"/>
       <c r="G45" s="6" t="inlineStr"/>
       <c r="H45" s="6" t="inlineStr"/>
-      <c r="I45" s="6" t="n">
-        <v>20.97478890760523</v>
-      </c>
+      <c r="I45" s="6" t="inlineStr"/>
       <c r="J45" s="6" t="n">
-        <v>30.4050973613435</v>
-      </c>
-      <c r="K45" s="6" t="n">
-        <v>67.84490355085696</v>
-      </c>
+        <v>29.62535861683512</v>
+      </c>
+      <c r="K45" s="6" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1999,31 +2001,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>0.001334921851615073</v>
+        <v>0.08143059953082556</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-0.5712871605058477</v>
+        <v>-0.5764409015481287</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-0.1675738072796164</v>
+        <v>-0.2303762451901729</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-0.6585823317890543</v>
+        <v>-0.6940661185658152</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-0.5202281972348521</v>
+        <v>-0.5147261091771246</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-0.2595307175212082</v>
+        <v>-0.2590957147072468</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-0.08130560630021297</v>
+        <v>-0.08619016340274184</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-0.3484731237755664</v>
+        <v>-0.359377726567404</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>0.09177215964091856</v>
+        <v>0.09365513096766984</v>
       </c>
     </row>
     <row r="48">
@@ -2034,31 +2036,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>2.34052448533275</v>
+        <v>2.536324704363471</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>0.9430623526171038</v>
+        <v>0.938984135386104</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>2.445421224918281</v>
+        <v>2.498168550021393</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>0.2336890975403014</v>
+        <v>0.2206398882214985</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>0.5387156402137715</v>
+        <v>0.534596199138557</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>4.335770753387004</v>
+        <v>3.962597581131968</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>1.155987582688778</v>
+        <v>1.122603824305749</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>0.5492031682919561</v>
+        <v>0.5157095450462825</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>2.325032823437739</v>
+        <v>2.289758743848756</v>
       </c>
     </row>
     <row r="49">
@@ -2104,23 +2106,25 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.3221851476467808</v>
+        <v>-0.3082935169526884</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.7564633391911842</v>
-      </c>
-      <c r="E50" s="6" t="inlineStr"/>
+        <v>-0.8413063272788364</v>
+      </c>
+      <c r="E50" s="6" t="n">
+        <v>-0.7050758862079208</v>
+      </c>
       <c r="F50" s="6" t="inlineStr"/>
       <c r="G50" s="6" t="inlineStr"/>
       <c r="H50" s="6" t="inlineStr"/>
       <c r="I50" s="6" t="n">
-        <v>-0.3318756380284551</v>
+        <v>-0.3945780209811371</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.7025107992017116</v>
+        <v>-0.6947999997668026</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.107504606085675</v>
+        <v>-0.1321963161706167</v>
       </c>
     </row>
     <row r="51">
@@ -2131,23 +2135,25 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>12.61564385369915</v>
+        <v>15.38011740933873</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>5.778023445494155</v>
-      </c>
-      <c r="E51" s="6" t="inlineStr"/>
+        <v>6.564197248909966</v>
+      </c>
+      <c r="E51" s="6" t="n">
+        <v>14.19906502029571</v>
+      </c>
       <c r="F51" s="6" t="inlineStr"/>
       <c r="G51" s="6" t="inlineStr"/>
       <c r="H51" s="6" t="inlineStr"/>
       <c r="I51" s="6" t="n">
-        <v>6.143535621198915</v>
+        <v>5.508096460452397</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>2.916361861696808</v>
+        <v>3.191044781973106</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>12.34744488128131</v>
+        <v>11.57824987642944</v>
       </c>
     </row>
     <row r="52">
@@ -2177,7 +2183,7 @@
         <v>0.2015724670459107</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>1.582338912543387</v>
+        <v>1.582338912543386</v>
       </c>
       <c r="I52" s="5" t="n">
         <v>0.4909630617186783</v>
@@ -2186,7 +2192,7 @@
         <v>0.4216068920249668</v>
       </c>
       <c r="K52" s="5" t="n">
-        <v>1.726843015214254</v>
+        <v>1.726843015214255</v>
       </c>
     </row>
     <row r="53">
@@ -2197,31 +2203,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>0.5876510308525024</v>
+        <v>0.5109158226799537</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>0.1800456490936897</v>
+        <v>0.1321132311506551</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>0.9076797830776316</v>
+        <v>0.9178260940861099</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>-0.4028482858428777</v>
+        <v>-0.3544708631982961</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-0.09574019360315275</v>
+        <v>-0.07603718568160729</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>0.8260294981279969</v>
+        <v>0.7566438838570906</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>0.1419609093125463</v>
+        <v>0.1891010318212656</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>0.0868959234009373</v>
+        <v>0.1434325465711014</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>1.190954374115476</v>
+        <v>1.126169094156158</v>
       </c>
     </row>
     <row r="54">
@@ -2232,31 +2238,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>1.766446831627142</v>
+        <v>1.746510213648094</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>1.209901713425606</v>
+        <v>1.228558568363031</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>2.607584042589708</v>
+        <v>2.597809685336613</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>0.07967330771562514</v>
+        <v>0.08249814466271869</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>0.5025243498074267</v>
+        <v>0.5172451008925283</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>2.930244625185822</v>
+        <v>2.744456479662503</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>0.8296780686097652</v>
+        <v>0.8329490088539612</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>0.7088220028634091</v>
+        <v>0.7231232323997444</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>2.429064176528442</v>
+        <v>2.379340683535454</v>
       </c>
     </row>
     <row r="55">
@@ -2273,7 +2279,7 @@
         <v>0.8365639345151586</v>
       </c>
       <c r="E55" s="6" t="n">
-        <v>2.147476312639177</v>
+        <v>2.147476312639178</v>
       </c>
       <c r="F55" s="6" t="n">
         <v>-0.4761111957372998</v>
@@ -2282,7 +2288,7 @@
         <v>0.733314556516199</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>5.756501246997157</v>
+        <v>5.756501246997156</v>
       </c>
       <c r="I55" s="6" t="n">
         <v>0.9355755420086828</v>
@@ -2291,7 +2297,7 @@
         <v>0.8034109432592538</v>
       </c>
       <c r="K55" s="6" t="n">
-        <v>3.290659147080026</v>
+        <v>3.290659147080027</v>
       </c>
     </row>
     <row r="56">
@@ -2302,31 +2308,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>0.5706005344438384</v>
+        <v>0.452151620860808</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>0.1268541800403566</v>
+        <v>0.1086334562600995</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>0.8761897462082826</v>
+        <v>0.9542468514768954</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>-0.8944250311921697</v>
+        <v>-0.8372960552638956</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.3047799086451388</v>
+        <v>-0.280367410756344</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>1.636633272709704</v>
+        <v>1.71281044692423</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.183887312866997</v>
+        <v>0.2596459875488039</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>0.1174738232264967</v>
+        <v>0.1554331972053336</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>1.83555896095187</v>
+        <v>1.687551170138016</v>
       </c>
     </row>
     <row r="57">
@@ -2337,31 +2343,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>3.086117256509475</v>
+        <v>3.060619095489931</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>2.046262285046072</v>
+        <v>2.252746425672596</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>4.254960465199834</v>
+        <v>4.496214157092889</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.9170898701515497</v>
+        <v>1.214684116562802</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>3.723397858136778</v>
+        <v>3.66155796445856</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>17.30009792495099</v>
+        <v>17.73047322181736</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>1.973785534029444</v>
+        <v>2.070509910628307</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>1.739717022267387</v>
+        <v>1.704699754939389</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>5.705646580254811</v>
+        <v>5.388101562610845</v>
       </c>
     </row>
     <row r="58">
